--- a/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PartCode</t>
   </si>
@@ -41,13 +41,22 @@
     <t>MinQty</t>
   </si>
   <si>
+    <t>RGB</t>
+  </si>
+  <si>
     <t>IsActive</t>
   </si>
   <si>
     <t>Hard Disk</t>
   </si>
   <si>
-    <t>No</t>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>MTS</t>
   </si>
 </sst>
 </file>
@@ -995,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.1111111111111" customWidth="1"/>
@@ -1009,7 +1018,7 @@
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1022,30 +1031,56 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E2 F2 E3 F3 E4:E1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sujay-Git\CLN_API\Presentation\Casa.API\FormatFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE94A4F-F9EB-4F8F-982E-9F3BCD24626E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E505A7-AA35-490A-9ACF-0EE81B7BEC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PartCode</t>
   </si>
@@ -34,9 +34,6 @@
     <t>MinQty</t>
   </si>
   <si>
-    <t>RGB</t>
-  </si>
-  <si>
     <t>IsActive</t>
   </si>
   <si>
@@ -59,18 +56,31 @@
   </si>
   <si>
     <t>Consumable</t>
+  </si>
+  <si>
+    <t>AvailableQty</t>
+  </si>
+  <si>
+    <t>RGP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -122,8 +132,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -410,13 +423,13 @@
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -431,61 +444,70 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" s="2">
+        <v>10</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>124</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 F2 G2 F3 G3 F4:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 G2 H2 G3 H3 G4:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sujay-Git\CLN_API\Presentation\Casa.API\FormatFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E505A7-AA35-490A-9ACF-0EE81B7BEC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PartCode</t>
   </si>
@@ -62,12 +56,15 @@
   </si>
   <si>
     <t>RGP</t>
+  </si>
+  <si>
+    <t>TentativeCost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -411,23 +408,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="5" width="9.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -446,14 +444,17 @@
       <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -472,14 +473,17 @@
       <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
+      <c r="G2" s="2">
+        <v>10.210000000000001</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -498,16 +502,19 @@
       <c r="F3" s="2">
         <v>20</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="b">
+      <c r="I3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 G2 H2 G3 H3 G4:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 H2:H1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>PartCode</t>
   </si>
@@ -37,18 +37,9 @@
     <t>KG</t>
   </si>
   <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>MTS</t>
-  </si>
-  <si>
     <t>SpareCategory</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
     <t>Consumable</t>
   </si>
   <si>
@@ -59,6 +50,18 @@
   </si>
   <si>
     <t>TentativeCost</t>
+  </si>
+  <si>
+    <t>ProductMake</t>
+  </si>
+  <si>
+    <t>BMSMake</t>
+  </si>
+  <si>
+    <t>FBTECH</t>
+  </si>
+  <si>
+    <t>Udaan</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -423,11 +426,13 @@
     <col min="4" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -442,21 +447,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
@@ -476,45 +487,22 @@
       <c r="G2" s="2">
         <v>10.210000000000001</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
+      <c r="K2" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 J2:J1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>PartCode</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UOM</t>
   </si>
@@ -55,13 +49,13 @@
     <t>ProductMake</t>
   </si>
   <si>
-    <t>BMSMake</t>
-  </si>
-  <si>
     <t>FBTECH</t>
   </si>
   <si>
-    <t>Udaan</t>
+    <t>SparePartCode</t>
+  </si>
+  <si>
+    <t>SparePartDescription</t>
   </si>
 </sst>
 </file>
@@ -412,97 +406,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 I2:I1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_SpareDetails.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -489,7 +489,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 J1:J1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
